--- a/Bestzeiten_2013.xlsx
+++ b/Bestzeiten_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,7 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="145621" calcCompleted="0"/>
 </workbook>
 </file>
 
@@ -586,10 +585,10 @@
             <v>4.0810185185185185E-3</v>
           </cell>
           <cell r="D4">
-            <v>9.3124999999999996E-3</v>
+            <v>8.4768518518518517E-3</v>
           </cell>
           <cell r="E4">
-            <v>1.4109953703703704E-2</v>
+            <v>1.3895833333333333E-2</v>
           </cell>
           <cell r="F4">
             <v>1.8905092592592591E-2</v>
@@ -598,13 +597,13 @@
             <v>2.3748842592592592E-2</v>
           </cell>
           <cell r="H4">
-            <v>2.9225694444444443E-2</v>
+            <v>2.9023148148148145E-2</v>
           </cell>
           <cell r="I4">
-            <v>3.5381944444444438E-2</v>
+            <v>3.5159722222222217E-2</v>
           </cell>
           <cell r="J4">
-            <v>4.1828703703703694E-2</v>
+            <v>4.1378472222222219E-2</v>
           </cell>
           <cell r="K4">
             <v>4.7849537037037038E-2</v>
@@ -630,49 +629,49 @@
         </row>
         <row r="17">
           <cell r="C17">
-            <v>4.0810185185185185E-3</v>
+            <v>4.0162037037037041E-3</v>
           </cell>
           <cell r="D17">
-            <v>4.3055555555555555E-3</v>
+            <v>4.2384259259259259E-3</v>
           </cell>
           <cell r="E17">
-            <v>4.4444444444444444E-3</v>
+            <v>4.363425925925926E-3</v>
           </cell>
           <cell r="F17">
+            <v>4.4675925925925924E-3</v>
+          </cell>
+          <cell r="G17">
             <v>4.5370370370370373E-3</v>
           </cell>
-          <cell r="G17">
-            <v>4.6180555555555558E-3</v>
-          </cell>
           <cell r="H17">
-            <v>4.6759259259259263E-3</v>
+            <v>4.6064814814814814E-3</v>
           </cell>
           <cell r="I17">
-            <v>4.7337962962962967E-3</v>
+            <v>4.6643518518518518E-3</v>
           </cell>
           <cell r="J17">
-            <v>4.7800925925925927E-3</v>
+            <v>4.7106481481481478E-3</v>
           </cell>
           <cell r="K17">
+            <v>4.7453703703703703E-3</v>
+          </cell>
+          <cell r="L17">
+            <v>4.7916666666666663E-3</v>
+          </cell>
+          <cell r="M17">
             <v>4.8263888888888887E-3</v>
           </cell>
-          <cell r="L17">
-            <v>4.8611111111111112E-3</v>
-          </cell>
-          <cell r="M17">
-            <v>4.8958333333333336E-3</v>
-          </cell>
           <cell r="N17">
+            <v>4.8495370370370368E-3</v>
+          </cell>
+          <cell r="O17">
+            <v>4.8842592592592592E-3</v>
+          </cell>
+          <cell r="P17">
+            <v>4.9074074074074072E-3</v>
+          </cell>
+          <cell r="Q17">
             <v>4.9305555555555552E-3</v>
-          </cell>
-          <cell r="O17">
-            <v>4.9652777777777777E-3</v>
-          </cell>
-          <cell r="P17">
-            <v>4.9884259259259257E-3</v>
-          </cell>
-          <cell r="Q17">
-            <v>5.0231481481481481E-3</v>
           </cell>
         </row>
       </sheetData>
@@ -983,8 +982,8 @@
   </sheetPr>
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,11 +1256,11 @@
       </c>
       <c r="C6" s="28">
         <f>[1]Bestzeiten!D$4</f>
-        <v>9.3124999999999996E-3</v>
+        <v>8.4768518518518517E-3</v>
       </c>
       <c r="D6" s="28">
         <f>[1]Bestzeiten!E$4</f>
-        <v>1.4109953703703704E-2</v>
+        <v>1.3895833333333333E-2</v>
       </c>
       <c r="E6" s="28">
         <f>[1]Bestzeiten!F$4</f>
@@ -1273,15 +1272,15 @@
       </c>
       <c r="G6" s="28">
         <f>[1]Bestzeiten!H$4</f>
-        <v>2.9225694444444443E-2</v>
+        <v>2.9023148148148145E-2</v>
       </c>
       <c r="H6" s="28">
         <f>[1]Bestzeiten!I$4</f>
-        <v>3.5381944444444438E-2</v>
+        <v>3.5159722222222217E-2</v>
       </c>
       <c r="I6" s="53">
         <f>[1]Bestzeiten!J$4</f>
-        <v>4.1828703703703694E-2</v>
+        <v>4.1378472222222219E-2</v>
       </c>
       <c r="J6" s="53">
         <f>[1]Bestzeiten!K$4</f>
@@ -1625,12 +1624,12 @@
         <v>4.0810185185185185E-3</v>
       </c>
       <c r="C14" s="35">
-        <f t="shared" ref="B14:P14" si="0">C6/C1</f>
-        <v>4.6562499999999998E-3</v>
+        <f t="shared" ref="C14:P14" si="0">C6/C1</f>
+        <v>4.2384259259259259E-3</v>
       </c>
       <c r="D14" s="35">
         <f t="shared" si="0"/>
-        <v>4.7033179012345681E-3</v>
+        <v>4.6319444444444446E-3</v>
       </c>
       <c r="E14" s="35">
         <f t="shared" si="0"/>
@@ -1642,15 +1641,15 @@
       </c>
       <c r="G14" s="35">
         <f t="shared" si="0"/>
-        <v>4.8709490740740735E-3</v>
+        <v>4.8371913580246909E-3</v>
       </c>
       <c r="H14" s="35">
         <f t="shared" si="0"/>
-        <v>5.0545634920634913E-3</v>
+        <v>5.0228174603174592E-3</v>
       </c>
       <c r="I14" s="35">
         <f t="shared" si="0"/>
-        <v>5.2285879629629618E-3</v>
+        <v>5.1723090277777774E-3</v>
       </c>
       <c r="J14" s="35">
         <f t="shared" si="0"/>
@@ -1689,25 +1688,25 @@
         <v>4</v>
       </c>
       <c r="B15" s="46">
-        <v>4.0046296296296297E-3</v>
+        <v>3.7430555555555555E-3</v>
       </c>
       <c r="C15" s="46">
-        <v>4.2245370370370397E-3</v>
+        <v>4.1805555555555554E-3</v>
       </c>
       <c r="D15" s="46">
-        <v>4.3518518518518498E-3</v>
+        <v>4.3657407407407412E-3</v>
       </c>
       <c r="E15" s="46">
-        <v>4.4560185185185197E-3</v>
+        <v>4.4247685185185189E-3</v>
       </c>
       <c r="F15" s="46">
-        <v>4.5289351851851897E-3</v>
+        <v>4.5081018518518517E-3</v>
       </c>
       <c r="G15" s="46">
-        <v>4.5949074074074104E-3</v>
+        <v>4.5370370370370365E-3</v>
       </c>
       <c r="H15" s="46">
-        <v>4.6412037037037003E-3</v>
+        <v>4.5370370370370365E-3</v>
       </c>
       <c r="I15" s="46">
         <v>4.6874999999999998E-3</v>
@@ -1731,63 +1730,63 @@
       </c>
       <c r="B16" s="50">
         <f>[1]Bestzeiten!C$17</f>
-        <v>4.0810185185185185E-3</v>
+        <v>4.0162037037037041E-3</v>
       </c>
       <c r="C16" s="50">
         <f>[1]Bestzeiten!D$17</f>
-        <v>4.3055555555555555E-3</v>
+        <v>4.2384259259259259E-3</v>
       </c>
       <c r="D16" s="50">
         <f>[1]Bestzeiten!E$17</f>
-        <v>4.4444444444444444E-3</v>
+        <v>4.363425925925926E-3</v>
       </c>
       <c r="E16" s="50">
         <f>[1]Bestzeiten!F$17</f>
-        <v>4.5370370370370373E-3</v>
+        <v>4.4675925925925924E-3</v>
       </c>
       <c r="F16" s="50">
         <f>[1]Bestzeiten!G$17</f>
-        <v>4.6180555555555558E-3</v>
+        <v>4.5370370370370373E-3</v>
       </c>
       <c r="G16" s="50">
         <f>[1]Bestzeiten!H$17</f>
-        <v>4.6759259259259263E-3</v>
+        <v>4.6064814814814814E-3</v>
       </c>
       <c r="H16" s="50">
         <f>[1]Bestzeiten!I$17</f>
-        <v>4.7337962962962967E-3</v>
+        <v>4.6643518518518518E-3</v>
       </c>
       <c r="I16" s="50">
         <f>[1]Bestzeiten!J$17</f>
-        <v>4.7800925925925927E-3</v>
+        <v>4.7106481481481478E-3</v>
       </c>
       <c r="J16" s="50">
         <f>[1]Bestzeiten!K$17</f>
-        <v>4.8263888888888887E-3</v>
+        <v>4.7453703703703703E-3</v>
       </c>
       <c r="K16" s="50">
         <f>[1]Bestzeiten!L$17</f>
-        <v>4.8611111111111112E-3</v>
+        <v>4.7916666666666663E-3</v>
       </c>
       <c r="L16" s="50">
         <f>[1]Bestzeiten!M$17</f>
-        <v>4.8958333333333336E-3</v>
+        <v>4.8263888888888887E-3</v>
       </c>
       <c r="M16" s="50">
         <f>[1]Bestzeiten!N$17</f>
-        <v>4.9305555555555552E-3</v>
+        <v>4.8495370370370368E-3</v>
       </c>
       <c r="N16" s="50">
         <f>[1]Bestzeiten!O$17</f>
-        <v>4.9652777777777777E-3</v>
+        <v>4.8842592592592592E-3</v>
       </c>
       <c r="O16" s="50">
         <f>[1]Bestzeiten!P$17</f>
-        <v>4.9884259259259257E-3</v>
+        <v>4.9074074074074072E-3</v>
       </c>
       <c r="P16" s="50">
         <f>[1]Bestzeiten!Q$17</f>
-        <v>5.0231481481481481E-3</v>
+        <v>4.9305555555555552E-3</v>
       </c>
       <c r="Q16" s="51" t="s">
         <v>6</v>

--- a/Bestzeiten_2013.xlsx
+++ b/Bestzeiten_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="16380" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,13 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="145621" calcCompleted="0"/>
+  <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>Zeit</t>
   </si>
@@ -81,15 +82,21 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -371,11 +378,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -443,9 +492,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -506,18 +552,6 @@
     <xf numFmtId="47" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="47" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="47" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -534,6 +568,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -582,40 +646,40 @@
       <sheetData sheetId="6">
         <row r="4">
           <cell r="C4">
-            <v>4.0810185185185185E-3</v>
+            <v>3.9259259259259256E-3</v>
           </cell>
           <cell r="D4">
-            <v>8.4768518518518517E-3</v>
+            <v>8.4189814814814821E-3</v>
           </cell>
           <cell r="E4">
-            <v>1.3895833333333333E-2</v>
+            <v>1.2921296296296297E-2</v>
           </cell>
           <cell r="F4">
-            <v>1.8905092592592591E-2</v>
+            <v>1.7657407407407406E-2</v>
           </cell>
           <cell r="G4">
-            <v>2.3748842592592592E-2</v>
+            <v>2.2634259259259257E-2</v>
           </cell>
           <cell r="H4">
-            <v>2.9023148148148145E-2</v>
+            <v>2.7995370370370368E-2</v>
           </cell>
           <cell r="I4">
-            <v>3.5159722222222217E-2</v>
+            <v>3.3186342592592594E-2</v>
           </cell>
           <cell r="J4">
-            <v>4.1378472222222219E-2</v>
+            <v>3.7993055555555558E-2</v>
           </cell>
           <cell r="K4">
-            <v>4.7849537037037038E-2</v>
+            <v>4.2868055555555555E-2</v>
           </cell>
           <cell r="L4">
-            <v>5.3394675925925929E-2</v>
+            <v>4.7865740740740743E-2</v>
           </cell>
           <cell r="M4">
-            <v>5.9112268518518522E-2</v>
+            <v>5.3543981481481484E-2</v>
           </cell>
           <cell r="N4">
-            <v>6.5156249999999999E-2</v>
+            <v>6.0064814814814821E-2</v>
           </cell>
           <cell r="O4">
             <v>7.1672453703703703E-2</v>
@@ -629,49 +693,49 @@
         </row>
         <row r="17">
           <cell r="C17">
-            <v>4.0162037037037041E-3</v>
+            <v>3.9259259259259256E-3</v>
           </cell>
           <cell r="D17">
-            <v>4.2384259259259259E-3</v>
+            <v>4.1319444444444442E-3</v>
           </cell>
           <cell r="E17">
+            <v>4.2592592592592595E-3</v>
+          </cell>
+          <cell r="F17">
             <v>4.363425925925926E-3</v>
           </cell>
-          <cell r="F17">
-            <v>4.4675925925925924E-3</v>
-          </cell>
           <cell r="G17">
-            <v>4.5370370370370373E-3</v>
+            <v>4.43287037037037E-3</v>
           </cell>
           <cell r="H17">
-            <v>4.6064814814814814E-3</v>
+            <v>4.4907407407407405E-3</v>
           </cell>
           <cell r="I17">
-            <v>4.6643518518518518E-3</v>
+            <v>4.5486111111111109E-3</v>
           </cell>
           <cell r="J17">
+            <v>4.5949074074074078E-3</v>
+          </cell>
+          <cell r="K17">
+            <v>4.6412037037037038E-3</v>
+          </cell>
+          <cell r="L17">
+            <v>4.6759259259259263E-3</v>
+          </cell>
+          <cell r="M17">
             <v>4.7106481481481478E-3</v>
           </cell>
-          <cell r="K17">
-            <v>4.7453703703703703E-3</v>
-          </cell>
-          <cell r="L17">
+          <cell r="N17">
+            <v>4.7337962962962967E-3</v>
+          </cell>
+          <cell r="O17">
+            <v>4.7685185185185183E-3</v>
+          </cell>
+          <cell r="P17">
             <v>4.7916666666666663E-3</v>
           </cell>
-          <cell r="M17">
-            <v>4.8263888888888887E-3</v>
-          </cell>
-          <cell r="N17">
-            <v>4.8495370370370368E-3</v>
-          </cell>
-          <cell r="O17">
-            <v>4.8842592592592592E-3</v>
-          </cell>
-          <cell r="P17">
-            <v>4.9074074074074072E-3</v>
-          </cell>
           <cell r="Q17">
-            <v>4.9305555555555552E-3</v>
+            <v>4.8148148148148152E-3</v>
           </cell>
         </row>
       </sheetData>
@@ -980,10 +1044,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,7 +1269,7 @@
         <v>8.5836805555555507E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>2008</v>
       </c>
@@ -1230,572 +1294,610 @@
       <c r="H5" s="20">
         <v>3.1078703703703699E-2</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="42">
         <v>3.58159722222222E-2</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="42">
         <v>4.1571759259259301E-2</v>
       </c>
       <c r="K5" s="21">
         <v>4.6771990740740697E-2</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="26"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="25"/>
     </row>
-    <row r="6" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27">
+    <row r="6" spans="1:17" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="53">
         <v>2013</v>
       </c>
-      <c r="B6" s="52">
+      <c r="B6" s="56">
         <f>[1]Bestzeiten!C$4</f>
-        <v>4.0810185185185185E-3</v>
-      </c>
-      <c r="C6" s="28">
+        <v>3.9259259259259256E-3</v>
+      </c>
+      <c r="C6" s="54">
         <f>[1]Bestzeiten!D$4</f>
-        <v>8.4768518518518517E-3</v>
-      </c>
-      <c r="D6" s="28">
+        <v>8.4189814814814821E-3</v>
+      </c>
+      <c r="D6" s="54">
         <f>[1]Bestzeiten!E$4</f>
-        <v>1.3895833333333333E-2</v>
-      </c>
-      <c r="E6" s="28">
+        <v>1.2921296296296297E-2</v>
+      </c>
+      <c r="E6" s="54">
         <f>[1]Bestzeiten!F$4</f>
-        <v>1.8905092592592591E-2</v>
-      </c>
-      <c r="F6" s="28">
+        <v>1.7657407407407406E-2</v>
+      </c>
+      <c r="F6" s="54">
         <f>[1]Bestzeiten!G$4</f>
-        <v>2.3748842592592592E-2</v>
-      </c>
-      <c r="G6" s="28">
+        <v>2.2634259259259257E-2</v>
+      </c>
+      <c r="G6" s="54">
         <f>[1]Bestzeiten!H$4</f>
-        <v>2.9023148148148145E-2</v>
-      </c>
-      <c r="H6" s="28">
+        <v>2.7995370370370368E-2</v>
+      </c>
+      <c r="H6" s="54">
         <f>[1]Bestzeiten!I$4</f>
-        <v>3.5159722222222217E-2</v>
-      </c>
-      <c r="I6" s="53">
+        <v>3.3186342592592594E-2</v>
+      </c>
+      <c r="I6" s="57">
         <f>[1]Bestzeiten!J$4</f>
-        <v>4.1378472222222219E-2</v>
-      </c>
-      <c r="J6" s="53">
+        <v>3.7993055555555558E-2</v>
+      </c>
+      <c r="J6" s="57">
         <f>[1]Bestzeiten!K$4</f>
-        <v>4.7849537037037038E-2</v>
-      </c>
-      <c r="K6" s="53">
+        <v>4.2868055555555555E-2</v>
+      </c>
+      <c r="K6" s="57">
         <f>[1]Bestzeiten!L$4</f>
-        <v>5.3394675925925929E-2</v>
-      </c>
-      <c r="L6" s="53">
+        <v>4.7865740740740743E-2</v>
+      </c>
+      <c r="L6" s="57">
         <f>[1]Bestzeiten!M$4</f>
-        <v>5.9112268518518522E-2</v>
-      </c>
-      <c r="M6" s="53">
+        <v>5.3543981481481484E-2</v>
+      </c>
+      <c r="M6" s="57">
         <f>[1]Bestzeiten!N$4</f>
-        <v>6.5156249999999999E-2</v>
-      </c>
-      <c r="N6" s="53">
+        <v>6.0064814814814821E-2</v>
+      </c>
+      <c r="N6" s="57">
         <f>[1]Bestzeiten!O$4</f>
         <v>7.1672453703703703E-2</v>
       </c>
-      <c r="O6" s="53">
+      <c r="O6" s="57">
         <f>[1]Bestzeiten!P$4</f>
         <v>8.6331018518518515E-2</v>
       </c>
-      <c r="P6" s="53">
+      <c r="P6" s="57">
         <f>[1]Bestzeiten!Q$4</f>
         <v>9.2716435185185186E-2</v>
       </c>
-      <c r="Q6" s="29">
+      <c r="Q6" s="58">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
+    <row r="7" spans="1:17" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="47">
+        <v>3.7430555555555555E-3</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48">
+        <v>4.4340277777777777E-2</v>
+      </c>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
+    <row r="8" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
     </row>
-    <row r="9" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4">
-        <v>3</v>
-      </c>
-      <c r="E9" s="4">
-        <v>4</v>
-      </c>
-      <c r="F9" s="4">
-        <v>5</v>
-      </c>
-      <c r="G9" s="4">
-        <v>6</v>
-      </c>
-      <c r="H9" s="4">
-        <v>7</v>
-      </c>
-      <c r="I9" s="4">
-        <v>8</v>
-      </c>
-      <c r="J9" s="4">
-        <v>9</v>
-      </c>
-      <c r="K9" s="5">
-        <v>10</v>
-      </c>
-      <c r="L9" s="5">
-        <v>11</v>
-      </c>
-      <c r="M9" s="5">
-        <v>12</v>
-      </c>
-      <c r="N9" s="5">
-        <v>13</v>
-      </c>
-      <c r="O9" s="5">
-        <v>14</v>
-      </c>
-      <c r="P9" s="5">
-        <v>15</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>16</v>
-      </c>
+    <row r="9" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
     </row>
     <row r="10" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="32">
-        <v>2.74652777777778E-3</v>
-      </c>
-      <c r="C10" s="9">
-        <v>2.9577546296296301E-3</v>
-      </c>
-      <c r="D10" s="9">
-        <v>3.07986111111111E-3</v>
-      </c>
-      <c r="E10" s="9">
-        <v>3.07986111111111E-3</v>
-      </c>
-      <c r="F10" s="9">
-        <v>3.2185185185185199E-3</v>
-      </c>
-      <c r="G10" s="9">
-        <v>3.2185412871888301E-3</v>
-      </c>
-      <c r="H10" s="9">
-        <v>3.3030287752623799E-3</v>
-      </c>
-      <c r="I10" s="9">
-        <v>3.36639439131755E-3</v>
-      </c>
-      <c r="J10" s="9">
-        <v>3.4156787593604501E-3</v>
-      </c>
-      <c r="K10" s="9">
-        <v>3.4551062537947798E-3</v>
-      </c>
-      <c r="L10" s="9">
-        <v>3.4873651128774102E-3</v>
-      </c>
-      <c r="M10" s="9">
-        <v>3.50720660038454E-3</v>
-      </c>
-      <c r="N10" s="9">
-        <v>3.5239955513521101E-3</v>
-      </c>
-      <c r="O10" s="9">
-        <v>3.5383860807528802E-3</v>
-      </c>
-      <c r="P10" s="9">
-        <v>3.5508578729002201E-3</v>
-      </c>
-      <c r="Q10" s="33">
-        <v>3.5617706910291399E-3</v>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4</v>
+      </c>
+      <c r="F10" s="4">
+        <v>5</v>
+      </c>
+      <c r="G10" s="4">
+        <v>6</v>
+      </c>
+      <c r="H10" s="4">
+        <v>7</v>
+      </c>
+      <c r="I10" s="4">
+        <v>8</v>
+      </c>
+      <c r="J10" s="4">
+        <v>9</v>
+      </c>
+      <c r="K10" s="5">
+        <v>10</v>
+      </c>
+      <c r="L10" s="5">
+        <v>11</v>
+      </c>
+      <c r="M10" s="5">
+        <v>12</v>
+      </c>
+      <c r="N10" s="5">
+        <v>13</v>
+      </c>
+      <c r="O10" s="5">
+        <v>14</v>
+      </c>
+      <c r="P10" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34">
-        <v>2011</v>
-      </c>
-      <c r="B11" s="35">
-        <v>3.2245370370370401E-3</v>
-      </c>
-      <c r="C11" s="36">
-        <v>3.4184027777777802E-3</v>
-      </c>
-      <c r="D11" s="36">
-        <v>3.6315586419753102E-3</v>
-      </c>
-      <c r="E11" s="36">
-        <v>3.66521990740741E-3</v>
-      </c>
-      <c r="F11" s="36">
-        <v>3.6918981481481499E-3</v>
-      </c>
-      <c r="G11" s="36">
-        <v>3.8292824074074101E-3</v>
-      </c>
-      <c r="H11" s="36">
-        <v>3.8344907407407399E-3</v>
-      </c>
-      <c r="I11" s="36">
-        <v>3.8330439814814798E-3</v>
-      </c>
-      <c r="J11" s="36">
-        <v>3.8281893004115199E-3</v>
-      </c>
-      <c r="K11" s="36">
-        <v>3.8246527777777801E-3</v>
-      </c>
-      <c r="L11" s="36">
-        <v>3.8281776094276098E-3</v>
-      </c>
-      <c r="M11" s="36">
-        <v>3.8871527777777802E-3</v>
-      </c>
-      <c r="N11" s="36">
-        <v>3.9153311965812003E-3</v>
-      </c>
-      <c r="O11" s="36">
-        <v>3.9174933862433899E-3</v>
-      </c>
-      <c r="P11" s="36">
-        <v>3.9188271604938298E-3</v>
-      </c>
-      <c r="Q11" s="37">
-        <v>3.9713541666666699E-3</v>
+      <c r="A11" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="31">
+        <v>2.74652777777778E-3</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2.9577546296296301E-3</v>
+      </c>
+      <c r="D11" s="9">
+        <v>3.07986111111111E-3</v>
+      </c>
+      <c r="E11" s="9">
+        <v>3.07986111111111E-3</v>
+      </c>
+      <c r="F11" s="9">
+        <v>3.2185185185185199E-3</v>
+      </c>
+      <c r="G11" s="9">
+        <v>3.2185412871888301E-3</v>
+      </c>
+      <c r="H11" s="9">
+        <v>3.3030287752623799E-3</v>
+      </c>
+      <c r="I11" s="9">
+        <v>3.36639439131755E-3</v>
+      </c>
+      <c r="J11" s="9">
+        <v>3.4156787593604501E-3</v>
+      </c>
+      <c r="K11" s="9">
+        <v>3.4551062537947798E-3</v>
+      </c>
+      <c r="L11" s="9">
+        <v>3.4873651128774102E-3</v>
+      </c>
+      <c r="M11" s="9">
+        <v>3.50720660038454E-3</v>
+      </c>
+      <c r="N11" s="9">
+        <v>3.5239955513521101E-3</v>
+      </c>
+      <c r="O11" s="9">
+        <v>3.5383860807528802E-3</v>
+      </c>
+      <c r="P11" s="9">
+        <v>3.5508578729002201E-3</v>
+      </c>
+      <c r="Q11" s="32">
+        <v>3.5617706910291399E-3</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38">
-        <v>2010</v>
-      </c>
-      <c r="B12" s="39">
-        <v>3.4004629629629602E-3</v>
-      </c>
-      <c r="C12" s="40">
-        <v>3.5370370370370399E-3</v>
-      </c>
-      <c r="D12" s="40">
-        <v>3.8900462962962999E-3</v>
-      </c>
-      <c r="E12" s="40">
-        <v>3.99623842592593E-3</v>
-      </c>
-      <c r="F12" s="40">
-        <v>4.0023148148148197E-3</v>
-      </c>
-      <c r="G12" s="40">
-        <v>4.0252700617284002E-3</v>
-      </c>
-      <c r="H12" s="40">
-        <v>4.2212301587301604E-3</v>
-      </c>
-      <c r="I12" s="40">
-        <v>4.3598958333333302E-3</v>
-      </c>
-      <c r="J12" s="40">
-        <v>4.4806722148735996E-3</v>
-      </c>
-      <c r="K12" s="40">
-        <v>4.4876049933862397E-3</v>
-      </c>
-      <c r="L12" s="40">
-        <v>4.5060833579299497E-3</v>
-      </c>
-      <c r="M12" s="40">
-        <v>4.5334827900366101E-3</v>
-      </c>
-      <c r="N12" s="40">
-        <v>4.7317485754985698E-3</v>
-      </c>
-      <c r="O12" s="40">
-        <v>4.7825727513227502E-3</v>
-      </c>
-      <c r="P12" s="40">
-        <v>4.9727623456790101E-3</v>
-      </c>
-      <c r="Q12" s="41">
-        <v>5.36480034722222E-3</v>
+      <c r="A12" s="33">
+        <v>2011</v>
+      </c>
+      <c r="B12" s="34">
+        <v>3.2245370370370401E-3</v>
+      </c>
+      <c r="C12" s="35">
+        <v>3.4184027777777802E-3</v>
+      </c>
+      <c r="D12" s="35">
+        <v>3.6315586419753102E-3</v>
+      </c>
+      <c r="E12" s="35">
+        <v>3.66521990740741E-3</v>
+      </c>
+      <c r="F12" s="35">
+        <v>3.6918981481481499E-3</v>
+      </c>
+      <c r="G12" s="35">
+        <v>3.8292824074074101E-3</v>
+      </c>
+      <c r="H12" s="35">
+        <v>3.8344907407407399E-3</v>
+      </c>
+      <c r="I12" s="35">
+        <v>3.8330439814814798E-3</v>
+      </c>
+      <c r="J12" s="35">
+        <v>3.8281893004115199E-3</v>
+      </c>
+      <c r="K12" s="35">
+        <v>3.8246527777777801E-3</v>
+      </c>
+      <c r="L12" s="35">
+        <v>3.8281776094276098E-3</v>
+      </c>
+      <c r="M12" s="35">
+        <v>3.8871527777777802E-3</v>
+      </c>
+      <c r="N12" s="35">
+        <v>3.9153311965812003E-3</v>
+      </c>
+      <c r="O12" s="35">
+        <v>3.9174933862433899E-3</v>
+      </c>
+      <c r="P12" s="35">
+        <v>3.9188271604938298E-3</v>
+      </c>
+      <c r="Q12" s="36">
+        <v>3.9713541666666699E-3</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="A13" s="37">
+        <v>2010</v>
+      </c>
+      <c r="B13" s="38">
+        <v>3.4004629629629602E-3</v>
+      </c>
+      <c r="C13" s="39">
+        <v>3.5370370370370399E-3</v>
+      </c>
+      <c r="D13" s="39">
+        <v>3.8900462962962999E-3</v>
+      </c>
+      <c r="E13" s="39">
+        <v>3.99623842592593E-3</v>
+      </c>
+      <c r="F13" s="39">
+        <v>4.0023148148148197E-3</v>
+      </c>
+      <c r="G13" s="39">
+        <v>4.0252700617284002E-3</v>
+      </c>
+      <c r="H13" s="39">
+        <v>4.2212301587301604E-3</v>
+      </c>
+      <c r="I13" s="39">
+        <v>4.3598958333333302E-3</v>
+      </c>
+      <c r="J13" s="39">
+        <v>4.4806722148735996E-3</v>
+      </c>
+      <c r="K13" s="39">
+        <v>4.4876049933862397E-3</v>
+      </c>
+      <c r="L13" s="39">
+        <v>4.5060833579299497E-3</v>
+      </c>
+      <c r="M13" s="39">
+        <v>4.5334827900366101E-3</v>
+      </c>
+      <c r="N13" s="39">
+        <v>4.7317485754985698E-3</v>
+      </c>
+      <c r="O13" s="39">
+        <v>4.7825727513227502E-3</v>
+      </c>
+      <c r="P13" s="39">
+        <v>4.9727623456790101E-3</v>
+      </c>
+      <c r="Q13" s="40">
+        <v>5.36480034722222E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18">
         <v>2008</v>
       </c>
-      <c r="B13" s="42">
+      <c r="B14" s="41">
         <v>3.4942129629629598E-3</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C14" s="20">
         <v>3.6788194444444399E-3</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D14" s="20">
         <v>4.0011574074074099E-3</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E14" s="20">
         <v>4.0778356481481499E-3</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F14" s="42">
         <v>4.1956018518518497E-3</v>
       </c>
-      <c r="G13" s="43">
+      <c r="G14" s="42">
         <v>4.3109567901234601E-3</v>
       </c>
-      <c r="H13" s="43">
+      <c r="H14" s="42">
         <v>4.43981481481482E-3</v>
       </c>
-      <c r="I13" s="43">
+      <c r="I14" s="42">
         <v>4.4769965277777803E-3</v>
       </c>
-      <c r="J13" s="43">
+      <c r="J14" s="42">
         <v>4.6190843621399203E-3</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K14" s="20">
         <v>4.6771990740740697E-3</v>
       </c>
-      <c r="L13" s="20" t="s">
+      <c r="L14" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="M13" s="20" t="s">
+      <c r="M14" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N13" s="20" t="s">
+      <c r="N14" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="O13" s="20" t="s">
+      <c r="O14" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="P13" s="20" t="s">
+      <c r="P14" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="Q13" s="44"/>
+      <c r="Q14" s="43"/>
     </row>
-    <row r="14" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34">
+    <row r="15" spans="1:17" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="53">
         <v>2013</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B15" s="54">
         <f>B6/B1</f>
-        <v>4.0810185185185185E-3</v>
-      </c>
-      <c r="C14" s="35">
-        <f t="shared" ref="C14:P14" si="0">C6/C1</f>
-        <v>4.2384259259259259E-3</v>
-      </c>
-      <c r="D14" s="35">
+        <v>3.9259259259259256E-3</v>
+      </c>
+      <c r="C15" s="54">
+        <f t="shared" ref="C15:P15" si="0">C6/C1</f>
+        <v>4.2094907407407411E-3</v>
+      </c>
+      <c r="D15" s="54">
         <f t="shared" si="0"/>
-        <v>4.6319444444444446E-3</v>
-      </c>
-      <c r="E14" s="35">
+        <v>4.3070987654320993E-3</v>
+      </c>
+      <c r="E15" s="54">
         <f t="shared" si="0"/>
-        <v>4.7262731481481478E-3</v>
-      </c>
-      <c r="F14" s="35">
+        <v>4.4143518518518516E-3</v>
+      </c>
+      <c r="F15" s="54">
         <f t="shared" si="0"/>
-        <v>4.7497685185185186E-3</v>
-      </c>
-      <c r="G14" s="35">
+        <v>4.5268518518518513E-3</v>
+      </c>
+      <c r="G15" s="54">
         <f t="shared" si="0"/>
-        <v>4.8371913580246909E-3</v>
-      </c>
-      <c r="H14" s="35">
+        <v>4.6658950617283947E-3</v>
+      </c>
+      <c r="H15" s="54">
         <f t="shared" si="0"/>
-        <v>5.0228174603174592E-3</v>
-      </c>
-      <c r="I14" s="35">
+        <v>4.7409060846560847E-3</v>
+      </c>
+      <c r="I15" s="54">
         <f t="shared" si="0"/>
-        <v>5.1723090277777774E-3</v>
-      </c>
-      <c r="J14" s="35">
+        <v>4.7491319444444447E-3</v>
+      </c>
+      <c r="J15" s="54">
         <f t="shared" si="0"/>
-        <v>5.316615226337449E-3</v>
-      </c>
-      <c r="K14" s="35">
+        <v>4.7631172839506172E-3</v>
+      </c>
+      <c r="K15" s="54">
         <f t="shared" si="0"/>
-        <v>5.3394675925925927E-3</v>
-      </c>
-      <c r="L14" s="35">
+        <v>4.7865740740740742E-3</v>
+      </c>
+      <c r="L15" s="54">
         <f t="shared" si="0"/>
-        <v>5.3738425925925933E-3</v>
-      </c>
-      <c r="M14" s="35">
+        <v>4.8676346801346804E-3</v>
+      </c>
+      <c r="M15" s="54">
         <f t="shared" si="0"/>
-        <v>5.4296874999999996E-3</v>
-      </c>
-      <c r="N14" s="35">
+        <v>5.005401234567902E-3</v>
+      </c>
+      <c r="N15" s="54">
         <f t="shared" si="0"/>
         <v>5.5132656695156693E-3</v>
       </c>
-      <c r="O14" s="35">
+      <c r="O15" s="54">
         <f t="shared" si="0"/>
         <v>6.1665013227513226E-3</v>
       </c>
-      <c r="P14" s="35">
+      <c r="P15" s="54">
         <f t="shared" si="0"/>
         <v>6.1810956790123456E-3</v>
       </c>
-      <c r="Q14" s="44" t="s">
+      <c r="Q15" s="55" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="46">
-        <v>3.7430555555555555E-3</v>
-      </c>
-      <c r="C15" s="46">
-        <v>4.1805555555555554E-3</v>
-      </c>
-      <c r="D15" s="46">
-        <v>4.3657407407407412E-3</v>
-      </c>
-      <c r="E15" s="46">
-        <v>4.4247685185185189E-3</v>
-      </c>
-      <c r="F15" s="46">
-        <v>4.5081018518518517E-3</v>
-      </c>
-      <c r="G15" s="46">
-        <v>4.5370370370370365E-3</v>
-      </c>
-      <c r="H15" s="46">
-        <v>4.5370370370370365E-3</v>
-      </c>
-      <c r="I15" s="46">
-        <v>4.6874999999999998E-3</v>
-      </c>
-      <c r="J15" s="46">
-        <v>4.7337962962963002E-3</v>
-      </c>
-      <c r="K15" s="46">
-        <v>4.76851851851852E-3</v>
-      </c>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="48"/>
     </row>
     <row r="16" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="50">
+        <v>3.7268518518518514E-3</v>
+      </c>
+      <c r="C16" s="50">
+        <v>3.9236111111111112E-3</v>
+      </c>
+      <c r="D16" s="50">
+        <v>4.0509259259259257E-3</v>
+      </c>
+      <c r="E16" s="50">
+        <v>4.1319444444444442E-3</v>
+      </c>
+      <c r="F16" s="50">
+        <v>4.2013888888888891E-3</v>
+      </c>
+      <c r="G16" s="50">
+        <v>4.2708333333333339E-3</v>
+      </c>
+      <c r="H16" s="50">
+        <v>4.31712962962963E-3</v>
+      </c>
+      <c r="I16" s="50">
+        <v>4.363425925925926E-3</v>
+      </c>
+      <c r="J16" s="50">
+        <v>4.3981481481481484E-3</v>
+      </c>
+      <c r="K16" s="50">
+        <f>K7/K1</f>
+        <v>4.4340277777777781E-3</v>
+      </c>
+      <c r="L16" s="50">
+        <v>4.4675925925925933E-3</v>
+      </c>
+      <c r="M16" s="50">
+        <v>4.4907407407407405E-3</v>
+      </c>
+      <c r="N16" s="50">
+        <v>4.5254629629629629E-3</v>
+      </c>
+      <c r="O16" s="50">
+        <v>4.5486111111111109E-3</v>
+      </c>
+      <c r="P16" s="51">
+        <v>4.5717592592592589E-3</v>
+      </c>
+      <c r="Q16" s="52"/>
+    </row>
+    <row r="17" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="50">
+      <c r="B17" s="45">
         <f>[1]Bestzeiten!C$17</f>
-        <v>4.0162037037037041E-3</v>
-      </c>
-      <c r="C16" s="50">
+        <v>3.9259259259259256E-3</v>
+      </c>
+      <c r="C17" s="45">
         <f>[1]Bestzeiten!D$17</f>
-        <v>4.2384259259259259E-3</v>
-      </c>
-      <c r="D16" s="50">
+        <v>4.1319444444444442E-3</v>
+      </c>
+      <c r="D17" s="45">
         <f>[1]Bestzeiten!E$17</f>
+        <v>4.2592592592592595E-3</v>
+      </c>
+      <c r="E17" s="45">
+        <f>[1]Bestzeiten!F$17</f>
         <v>4.363425925925926E-3</v>
       </c>
-      <c r="E16" s="50">
-        <f>[1]Bestzeiten!F$17</f>
-        <v>4.4675925925925924E-3</v>
-      </c>
-      <c r="F16" s="50">
+      <c r="F17" s="45">
         <f>[1]Bestzeiten!G$17</f>
-        <v>4.5370370370370373E-3</v>
-      </c>
-      <c r="G16" s="50">
+        <v>4.43287037037037E-3</v>
+      </c>
+      <c r="G17" s="45">
         <f>[1]Bestzeiten!H$17</f>
-        <v>4.6064814814814814E-3</v>
-      </c>
-      <c r="H16" s="50">
+        <v>4.4907407407407405E-3</v>
+      </c>
+      <c r="H17" s="45">
         <f>[1]Bestzeiten!I$17</f>
-        <v>4.6643518518518518E-3</v>
-      </c>
-      <c r="I16" s="50">
+        <v>4.5486111111111109E-3</v>
+      </c>
+      <c r="I17" s="45">
         <f>[1]Bestzeiten!J$17</f>
+        <v>4.5949074074074078E-3</v>
+      </c>
+      <c r="J17" s="45">
+        <f>[1]Bestzeiten!K$17</f>
+        <v>4.6412037037037038E-3</v>
+      </c>
+      <c r="K17" s="45">
+        <f>[1]Bestzeiten!L$17</f>
+        <v>4.6759259259259263E-3</v>
+      </c>
+      <c r="L17" s="45">
+        <f>[1]Bestzeiten!M$17</f>
         <v>4.7106481481481478E-3</v>
       </c>
-      <c r="J16" s="50">
-        <f>[1]Bestzeiten!K$17</f>
-        <v>4.7453703703703703E-3</v>
-      </c>
-      <c r="K16" s="50">
-        <f>[1]Bestzeiten!L$17</f>
+      <c r="M17" s="45">
+        <f>[1]Bestzeiten!N$17</f>
+        <v>4.7337962962962967E-3</v>
+      </c>
+      <c r="N17" s="45">
+        <f>[1]Bestzeiten!O$17</f>
+        <v>4.7685185185185183E-3</v>
+      </c>
+      <c r="O17" s="45">
+        <f>[1]Bestzeiten!P$17</f>
         <v>4.7916666666666663E-3</v>
       </c>
-      <c r="L16" s="50">
-        <f>[1]Bestzeiten!M$17</f>
-        <v>4.8263888888888887E-3</v>
-      </c>
-      <c r="M16" s="50">
-        <f>[1]Bestzeiten!N$17</f>
-        <v>4.8495370370370368E-3</v>
-      </c>
-      <c r="N16" s="50">
-        <f>[1]Bestzeiten!O$17</f>
-        <v>4.8842592592592592E-3</v>
-      </c>
-      <c r="O16" s="50">
-        <f>[1]Bestzeiten!P$17</f>
-        <v>4.9074074074074072E-3</v>
-      </c>
-      <c r="P16" s="50">
+      <c r="P17" s="45">
         <f>[1]Bestzeiten!Q$17</f>
-        <v>4.9305555555555552E-3</v>
-      </c>
-      <c r="Q16" s="51" t="s">
+        <v>4.8148148148148152E-3</v>
+      </c>
+      <c r="Q17" s="46" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="80" firstPageNumber="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Bestzeiten_2013.xlsx
+++ b/Bestzeiten_2013.xlsx
@@ -15,12 +15,11 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Zeit</t>
   </si>
@@ -49,7 +48,7 @@
     <numFmt numFmtId="165" formatCode="h:mm:ss.0"/>
     <numFmt numFmtId="166" formatCode="[h]:mm:ss.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -78,6 +77,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -549,9 +555,6 @@
     <xf numFmtId="47" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="47" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -574,6 +577,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="47" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -681,12 +687,12 @@
       <sheetName val="__VBA__1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6">
         <row r="4">
           <cell r="C4">
@@ -699,10 +705,10 @@
             <v>1.2616898148148148E-2</v>
           </cell>
           <cell r="F4">
-            <v>1.7201388888888891E-2</v>
+            <v>1.7171495706178878E-2</v>
           </cell>
           <cell r="G4">
-            <v>2.164351851851852E-2</v>
+            <v>2.1524305555555557E-2</v>
           </cell>
           <cell r="H4">
             <v>2.60775462962963E-2</v>
@@ -729,10 +735,13 @@
             <v>7.0863425925925927E-2</v>
           </cell>
           <cell r="P4">
-            <v>7.7377314814814815E-2</v>
+            <v>7.7306712962962973E-2</v>
           </cell>
           <cell r="Q4">
-            <v>8.5260416666666672E-2</v>
+            <v>8.3825231481481494E-2</v>
+          </cell>
+          <cell r="R4">
+            <v>9.1243055555555563E-2</v>
           </cell>
         </row>
         <row r="17">
@@ -786,16 +795,16 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1093,8 +1102,8 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,11 +1383,11 @@
       </c>
       <c r="E6" s="26">
         <f>[1]Bestzeiten!F4</f>
-        <v>1.7201388888888891E-2</v>
+        <v>1.7171495706178878E-2</v>
       </c>
       <c r="F6" s="26">
         <f>[1]Bestzeiten!G4</f>
-        <v>2.164351851851852E-2</v>
+        <v>2.1524305555555557E-2</v>
       </c>
       <c r="G6" s="26">
         <f>[1]Bestzeiten!H4</f>
@@ -1396,32 +1405,33 @@
         <f>[1]Bestzeiten!K4</f>
         <v>4.0497685185185185E-2</v>
       </c>
-      <c r="K6" s="49">
+      <c r="K6" s="48">
         <f>[1]Bestzeiten!L4</f>
         <v>4.5431712962962965E-2</v>
       </c>
-      <c r="L6" s="49">
+      <c r="L6" s="48">
         <f>[1]Bestzeiten!M4</f>
         <v>5.0938657407407412E-2</v>
       </c>
-      <c r="M6" s="49">
+      <c r="M6" s="48">
         <f>[1]Bestzeiten!N4</f>
         <v>5.7388888888888892E-2</v>
       </c>
-      <c r="N6" s="49">
+      <c r="N6" s="48">
         <f>[1]Bestzeiten!O4</f>
         <v>7.0863425925925927E-2</v>
       </c>
-      <c r="O6" s="49">
+      <c r="O6" s="48">
         <f>[1]Bestzeiten!P4</f>
-        <v>7.7377314814814815E-2</v>
-      </c>
-      <c r="P6" s="49">
+        <v>7.7306712962962973E-2</v>
+      </c>
+      <c r="P6" s="48">
         <f>[1]Bestzeiten!Q4</f>
-        <v>8.5260416666666672E-2</v>
+        <v>8.3825231481481494E-2</v>
       </c>
       <c r="Q6" s="27">
-        <v>0</v>
+        <f>[1]Bestzeiten!$R$4</f>
+        <v>9.1243055555555563E-2</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1770,11 +1780,11 @@
       </c>
       <c r="E15" s="42">
         <f t="shared" si="0"/>
-        <v>4.3003472222222228E-3</v>
+        <v>4.2928739265447194E-3</v>
       </c>
       <c r="F15" s="42">
         <f t="shared" si="0"/>
-        <v>4.3287037037037044E-3</v>
+        <v>4.3048611111111117E-3</v>
       </c>
       <c r="G15" s="42">
         <f t="shared" si="0"/>
@@ -1810,133 +1820,134 @@
       </c>
       <c r="O15" s="42">
         <f t="shared" si="0"/>
-        <v>5.5269510582010581E-3</v>
+        <v>5.5219080687830694E-3</v>
       </c>
       <c r="P15" s="42">
         <f t="shared" si="0"/>
-        <v>5.6840277777777783E-3</v>
-      </c>
-      <c r="Q15" s="43" t="s">
-        <v>4</v>
+        <v>5.5883487654320996E-3</v>
+      </c>
+      <c r="Q15" s="51">
+        <f>Q6/Q1</f>
+        <v>5.7026909722222227E-3</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="45">
+      <c r="B16" s="44">
         <v>3.7268518518518501E-3</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="44">
         <v>3.9236111111111104E-3</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D16" s="44">
         <v>4.05092592592593E-3</v>
       </c>
-      <c r="E16" s="45">
+      <c r="E16" s="44">
         <v>4.1319444444444398E-3</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="44">
         <v>4.2013888888888899E-3</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="44">
         <v>4.2708333333333296E-3</v>
       </c>
-      <c r="H16" s="45">
+      <c r="H16" s="44">
         <v>4.31712962962963E-3</v>
       </c>
-      <c r="I16" s="45">
+      <c r="I16" s="44">
         <v>4.3634259259259303E-3</v>
       </c>
-      <c r="J16" s="45">
+      <c r="J16" s="44">
         <v>4.3981481481481502E-3</v>
       </c>
-      <c r="K16" s="45">
+      <c r="K16" s="44">
         <f>K7/K1</f>
         <v>4.4340277777777798E-3</v>
       </c>
-      <c r="L16" s="45">
+      <c r="L16" s="44">
         <v>4.4675925925925898E-3</v>
       </c>
-      <c r="M16" s="45">
+      <c r="M16" s="44">
         <v>4.4907407407407396E-3</v>
       </c>
-      <c r="N16" s="45">
+      <c r="N16" s="44">
         <v>4.5254629629629603E-3</v>
       </c>
-      <c r="O16" s="45">
+      <c r="O16" s="44">
         <v>4.54861111111111E-3</v>
       </c>
-      <c r="P16" s="46">
+      <c r="P16" s="45">
         <v>4.5717592592592598E-3</v>
       </c>
-      <c r="Q16" s="47"/>
+      <c r="Q16" s="46"/>
     </row>
     <row r="17" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="51">
+      <c r="B17" s="50">
         <f>[1]Bestzeiten!C$17</f>
         <v>3.7384259259259259E-3</v>
       </c>
-      <c r="C17" s="51">
+      <c r="C17" s="50">
         <f>[1]Bestzeiten!D$17</f>
         <v>3.9467592592592592E-3</v>
       </c>
-      <c r="D17" s="51">
+      <c r="D17" s="50">
         <f>[1]Bestzeiten!E$17</f>
         <v>4.0625000000000001E-3</v>
       </c>
-      <c r="E17" s="51">
+      <c r="E17" s="50">
         <f>[1]Bestzeiten!F$17</f>
         <v>4.1550925925925922E-3</v>
       </c>
-      <c r="F17" s="51">
+      <c r="F17" s="50">
         <f>[1]Bestzeiten!G$17</f>
         <v>4.2245370370370371E-3</v>
       </c>
-      <c r="G17" s="51">
+      <c r="G17" s="50">
         <f>[1]Bestzeiten!H$17</f>
         <v>4.2824074074074075E-3</v>
       </c>
-      <c r="H17" s="51">
+      <c r="H17" s="50">
         <f>[1]Bestzeiten!I$17</f>
         <v>4.340277777777778E-3</v>
       </c>
-      <c r="I17" s="51">
+      <c r="I17" s="50">
         <f>[1]Bestzeiten!J$17</f>
         <v>4.3831018518518516E-3</v>
       </c>
-      <c r="J17" s="51">
+      <c r="J17" s="50">
         <f>[1]Bestzeiten!K$17</f>
         <v>4.4212962962962964E-3</v>
       </c>
-      <c r="K17" s="51">
+      <c r="K17" s="50">
         <f>[1]Bestzeiten!L$17</f>
         <v>4.4560185185185189E-3</v>
       </c>
-      <c r="L17" s="51">
+      <c r="L17" s="50">
         <f>[1]Bestzeiten!M$17</f>
         <v>4.4907407407407405E-3</v>
       </c>
-      <c r="M17" s="51">
+      <c r="M17" s="50">
         <f>[1]Bestzeiten!N$17</f>
         <v>4.5138888888888885E-3</v>
       </c>
-      <c r="N17" s="51">
+      <c r="N17" s="50">
         <f>[1]Bestzeiten!O$17</f>
         <v>4.5486111111111109E-3</v>
       </c>
-      <c r="O17" s="51">
+      <c r="O17" s="50">
         <f>[1]Bestzeiten!P$17</f>
         <v>4.5717592592592589E-3</v>
       </c>
-      <c r="P17" s="51">
+      <c r="P17" s="50">
         <f>[1]Bestzeiten!Q$17</f>
         <v>4.5949074074074078E-3</v>
       </c>
-      <c r="Q17" s="48">
+      <c r="Q17" s="47">
         <f>[1]Bestzeiten!$R$17</f>
         <v>4.6180555555555558E-3</v>
       </c>

--- a/Bestzeiten_2013.xlsx
+++ b/Bestzeiten_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="16380" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <numFmt numFmtId="165" formatCode="h:mm:ss.0"/>
     <numFmt numFmtId="166" formatCode="[h]:mm:ss.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -77,13 +77,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -99,7 +92,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -423,11 +416,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -567,9 +630,6 @@
     <xf numFmtId="47" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="47" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -579,7 +639,49 @@
     <xf numFmtId="47" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="47" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -702,16 +804,16 @@
             <v>8.1226851851851859E-3</v>
           </cell>
           <cell r="E4">
-            <v>1.2616898148148148E-2</v>
+            <v>1.238425925925926E-2</v>
           </cell>
           <cell r="F4">
-            <v>1.7171495706178878E-2</v>
+            <v>1.6475694444444446E-2</v>
           </cell>
           <cell r="G4">
-            <v>2.1524305555555557E-2</v>
+            <v>2.0864583333333332E-2</v>
           </cell>
           <cell r="H4">
-            <v>2.60775462962963E-2</v>
+            <v>2.5421296296296296E-2</v>
           </cell>
           <cell r="I4">
             <v>3.0482638888888892E-2</v>
@@ -720,10 +822,10 @@
             <v>3.5061342592592595E-2</v>
           </cell>
           <cell r="K4">
-            <v>4.0497685185185185E-2</v>
+            <v>3.9383759502038256E-2</v>
           </cell>
           <cell r="L4">
-            <v>4.5431712962962965E-2</v>
+            <v>4.3973379629629633E-2</v>
           </cell>
           <cell r="M4">
             <v>5.0938657407407412E-2</v>
@@ -732,66 +834,87 @@
             <v>5.7388888888888892E-2</v>
           </cell>
           <cell r="O4">
-            <v>7.0863425925925927E-2</v>
+            <v>7.0255787037037054E-2</v>
           </cell>
           <cell r="P4">
-            <v>7.7306712962962973E-2</v>
+            <v>7.6761574074074079E-2</v>
           </cell>
           <cell r="Q4">
-            <v>8.3825231481481494E-2</v>
+            <v>8.2376157407407433E-2</v>
           </cell>
           <cell r="R4">
-            <v>9.1243055555555563E-2</v>
+            <v>8.7930555555555581E-2</v>
+          </cell>
+          <cell r="S4">
+            <v>9.5256944444444464E-2</v>
           </cell>
         </row>
         <row r="17">
           <cell r="C17">
-            <v>3.7384259259259259E-3</v>
+            <v>3.6689814814814814E-3</v>
           </cell>
           <cell r="D17">
-            <v>3.9467592592592592E-3</v>
+            <v>3.8657407407407408E-3</v>
           </cell>
           <cell r="E17">
-            <v>4.0625000000000001E-3</v>
+            <v>3.9930555555555552E-3</v>
           </cell>
           <cell r="F17">
-            <v>4.1550925925925922E-3</v>
+            <v>4.0740740740740737E-3</v>
           </cell>
           <cell r="G17">
-            <v>4.2245370370370371E-3</v>
+            <v>4.1435185185185186E-3</v>
           </cell>
           <cell r="H17">
-            <v>4.2824074074074075E-3</v>
+            <v>4.2013888888888891E-3</v>
           </cell>
           <cell r="I17">
+            <v>4.2476851851851851E-3</v>
+          </cell>
+          <cell r="J17">
+            <v>4.2939814814814811E-3</v>
+          </cell>
+          <cell r="K17">
             <v>4.340277777777778E-3</v>
           </cell>
-          <cell r="J17">
-            <v>4.3831018518518516E-3</v>
-          </cell>
-          <cell r="K17">
-            <v>4.4212962962962964E-3</v>
-          </cell>
           <cell r="L17">
+            <v>4.3750000000000004E-3</v>
+          </cell>
+          <cell r="M17">
+            <v>4.3981481481481484E-3</v>
+          </cell>
+          <cell r="N17">
+            <v>4.43287037037037E-3</v>
+          </cell>
+          <cell r="O17">
             <v>4.4560185185185189E-3</v>
           </cell>
-          <cell r="M17">
-            <v>4.4907407407407405E-3</v>
-          </cell>
-          <cell r="N17">
-            <v>4.5138888888888885E-3</v>
-          </cell>
-          <cell r="O17">
+          <cell r="P17">
+            <v>4.4791666666666669E-3</v>
+          </cell>
+          <cell r="Q17">
+            <v>4.5023148148148149E-3</v>
+          </cell>
+          <cell r="R17">
+            <v>4.5254629629629629E-3</v>
+          </cell>
+          <cell r="S17">
             <v>4.5486111111111109E-3</v>
           </cell>
-          <cell r="P17">
+          <cell r="T17">
             <v>4.5717592592592589E-3</v>
           </cell>
-          <cell r="Q17">
-            <v>4.5949074074074078E-3</v>
-          </cell>
-          <cell r="R17">
+          <cell r="U17">
+            <v>4.5833333333333334E-3</v>
+          </cell>
+          <cell r="V17">
+            <v>4.6064814814814814E-3</v>
+          </cell>
+          <cell r="W17">
             <v>4.6180555555555558E-3</v>
+          </cell>
+          <cell r="X17">
+            <v>4.6412037037037038E-3</v>
           </cell>
         </row>
       </sheetData>
@@ -1100,19 +1223,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375"/>
-    <col min="2" max="17" width="9.5703125" style="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="16" width="9.5703125" style="1"/>
+    <col min="17" max="22" width="11.42578125" style="1"/>
+    <col min="23" max="23" width="9.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1161,11 +1286,29 @@
       <c r="P1" s="4">
         <v>15</v>
       </c>
-      <c r="Q1" s="5">
+      <c r="Q1" s="51">
         <v>16</v>
       </c>
+      <c r="R1" s="51">
+        <v>17</v>
+      </c>
+      <c r="S1" s="51">
+        <v>18</v>
+      </c>
+      <c r="T1" s="51">
+        <v>19</v>
+      </c>
+      <c r="U1" s="51">
+        <v>20</v>
+      </c>
+      <c r="V1" s="51">
+        <v>21</v>
+      </c>
+      <c r="W1" s="5">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1214,11 +1357,29 @@
       <c r="P2" s="10">
         <v>5.3262868093503397E-2</v>
       </c>
-      <c r="Q2" s="11">
-        <v>5.69883310564663E-2</v>
+      <c r="Q2" s="52">
+        <v>5.6988331056466314E-2</v>
+      </c>
+      <c r="R2" s="52">
+        <v>6.054134031572557E-2</v>
+      </c>
+      <c r="S2" s="52">
+        <v>6.4094349574984832E-2</v>
+      </c>
+      <c r="T2" s="52">
+        <v>6.7647358834244095E-2</v>
+      </c>
+      <c r="U2" s="52">
+        <v>7.1200368093503358E-2</v>
+      </c>
+      <c r="V2" s="52">
+        <v>7.4753377352762621E-2</v>
+      </c>
+      <c r="W2" s="11">
+        <v>0.10692934670722662</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2011</v>
       </c>
@@ -1267,11 +1428,29 @@
       <c r="P3" s="15">
         <v>5.8782407407407401E-2</v>
       </c>
-      <c r="Q3" s="16">
-        <v>6.3541666666666705E-2</v>
+      <c r="Q3" s="53">
+        <v>6.3541666666666677E-2</v>
+      </c>
+      <c r="R3" s="53">
+        <v>6.8789351851851852E-2</v>
+      </c>
+      <c r="S3" s="53">
+        <v>7.3385927047786001E-2</v>
+      </c>
+      <c r="T3" s="53">
+        <v>7.7672802328251023E-2</v>
+      </c>
+      <c r="U3" s="53">
+        <v>8.1959677608716044E-2</v>
+      </c>
+      <c r="V3" s="53">
+        <v>8.6246552889181066E-2</v>
+      </c>
+      <c r="W3" s="16">
+        <v>0.10692934670722662</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>2010</v>
       </c>
@@ -1320,11 +1499,21 @@
       <c r="P4" s="20">
         <v>7.4591435185185198E-2</v>
       </c>
-      <c r="Q4" s="21">
+      <c r="Q4" s="54">
+        <v>8.5836805555555548E-2</v>
+      </c>
+      <c r="R4" s="54">
+        <v>9.2695601851851842E-2</v>
+      </c>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="21">
         <v>8.5836805555555507E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>2008</v>
       </c>
@@ -1363,9 +1552,15 @@
       <c r="N5" s="22"/>
       <c r="O5" s="23"/>
       <c r="P5" s="23"/>
-      <c r="Q5" s="24"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="24"/>
     </row>
-    <row r="6" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>2013</v>
       </c>
@@ -1379,19 +1574,19 @@
       </c>
       <c r="D6" s="26">
         <f>[1]Bestzeiten!E4</f>
-        <v>1.2616898148148148E-2</v>
+        <v>1.238425925925926E-2</v>
       </c>
       <c r="E6" s="26">
         <f>[1]Bestzeiten!F4</f>
-        <v>1.7171495706178878E-2</v>
+        <v>1.6475694444444446E-2</v>
       </c>
       <c r="F6" s="26">
         <f>[1]Bestzeiten!G4</f>
-        <v>2.1524305555555557E-2</v>
+        <v>2.0864583333333332E-2</v>
       </c>
       <c r="G6" s="26">
         <f>[1]Bestzeiten!H4</f>
-        <v>2.60775462962963E-2</v>
+        <v>2.5421296296296296E-2</v>
       </c>
       <c r="H6" s="26">
         <f>[1]Bestzeiten!I4</f>
@@ -1403,38 +1598,50 @@
       </c>
       <c r="J6" s="26">
         <f>[1]Bestzeiten!K4</f>
-        <v>4.0497685185185185E-2</v>
-      </c>
-      <c r="K6" s="48">
+        <v>3.9383759502038256E-2</v>
+      </c>
+      <c r="K6" s="47">
         <f>[1]Bestzeiten!L4</f>
-        <v>4.5431712962962965E-2</v>
-      </c>
-      <c r="L6" s="48">
+        <v>4.3973379629629633E-2</v>
+      </c>
+      <c r="L6" s="47">
         <f>[1]Bestzeiten!M4</f>
         <v>5.0938657407407412E-2</v>
       </c>
-      <c r="M6" s="48">
+      <c r="M6" s="47">
         <f>[1]Bestzeiten!N4</f>
         <v>5.7388888888888892E-2</v>
       </c>
-      <c r="N6" s="48">
+      <c r="N6" s="47">
         <f>[1]Bestzeiten!O4</f>
-        <v>7.0863425925925927E-2</v>
-      </c>
-      <c r="O6" s="48">
+        <v>7.0255787037037054E-2</v>
+      </c>
+      <c r="O6" s="47">
         <f>[1]Bestzeiten!P4</f>
-        <v>7.7306712962962973E-2</v>
-      </c>
-      <c r="P6" s="48">
+        <v>7.6761574074074079E-2</v>
+      </c>
+      <c r="P6" s="47">
         <f>[1]Bestzeiten!Q4</f>
-        <v>8.3825231481481494E-2</v>
-      </c>
-      <c r="Q6" s="27">
+        <v>8.2376157407407433E-2</v>
+      </c>
+      <c r="Q6" s="47">
+        <f>[1]Bestzeiten!R4</f>
+        <v>8.7930555555555581E-2</v>
+      </c>
+      <c r="R6" s="47">
+        <f>[1]Bestzeiten!S4</f>
+        <v>9.5256944444444464E-2</v>
+      </c>
+      <c r="S6" s="47"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="27">
         <f>[1]Bestzeiten!$R$4</f>
-        <v>9.1243055555555563E-2</v>
+        <v>8.7930555555555581E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>2</v>
       </c>
@@ -1457,12 +1664,21 @@
       <c r="N7" s="31"/>
       <c r="O7" s="31"/>
       <c r="P7" s="31"/>
-      <c r="Q7" s="32">
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+    <row r="8" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="50">
+        <f ca="1">TODAY()</f>
+        <v>41570</v>
+      </c>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
@@ -1479,8 +1695,14 @@
       <c r="O8" s="33"/>
       <c r="P8" s="33"/>
       <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
     </row>
-    <row r="9" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
@@ -1498,8 +1720,14 @@
       <c r="O9" s="33"/>
       <c r="P9" s="33"/>
       <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
     </row>
-    <row r="10" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -1548,11 +1776,29 @@
       <c r="P10" s="4">
         <v>15</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="51">
         <v>16</v>
       </c>
+      <c r="R10" s="51">
+        <v>17</v>
+      </c>
+      <c r="S10" s="51">
+        <v>18</v>
+      </c>
+      <c r="T10" s="51">
+        <v>19</v>
+      </c>
+      <c r="U10" s="51">
+        <v>20</v>
+      </c>
+      <c r="V10" s="51">
+        <v>21</v>
+      </c>
+      <c r="W10" s="5">
+        <v>22</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>1</v>
       </c>
@@ -1601,11 +1847,29 @@
       <c r="P11" s="8">
         <v>3.5508578729002201E-3</v>
       </c>
-      <c r="Q11" s="35">
-        <v>3.5617706910291399E-3</v>
+      <c r="Q11" s="57">
+        <v>3.5617706910291446E-3</v>
+      </c>
+      <c r="R11" s="57">
+        <v>3.5612553126897393E-3</v>
+      </c>
+      <c r="S11" s="57">
+        <v>3.5607971986102685E-3</v>
+      </c>
+      <c r="T11" s="57">
+        <v>3.5603873070654789E-3</v>
+      </c>
+      <c r="U11" s="57">
+        <v>3.5600184046751678E-3</v>
+      </c>
+      <c r="V11" s="57">
+        <v>3.5596846358458391E-3</v>
+      </c>
+      <c r="W11" s="35">
+        <v>4.8604248503284824E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>2011</v>
       </c>
@@ -1654,11 +1918,29 @@
       <c r="P12" s="14">
         <v>3.9188271604938298E-3</v>
       </c>
-      <c r="Q12" s="36">
-        <v>3.9713541666666699E-3</v>
+      <c r="Q12" s="58">
+        <v>3.9713541666666673E-3</v>
+      </c>
+      <c r="R12" s="58">
+        <v>4.0464324618736383E-3</v>
+      </c>
+      <c r="S12" s="58">
+        <v>4.0769959470992219E-3</v>
+      </c>
+      <c r="T12" s="58">
+        <v>4.0880422278026856E-3</v>
+      </c>
+      <c r="U12" s="58">
+        <v>4.0979838804358019E-3</v>
+      </c>
+      <c r="V12" s="58">
+        <v>4.1069787090086225E-3</v>
+      </c>
+      <c r="W12" s="36">
+        <v>4.8604248503284824E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37">
         <v>2010</v>
       </c>
@@ -1707,11 +1989,21 @@
       <c r="P13" s="39">
         <v>4.9727623456790101E-3</v>
       </c>
-      <c r="Q13" s="40">
+      <c r="Q13" s="59">
+        <v>5.3648003472222218E-3</v>
+      </c>
+      <c r="R13" s="59">
+        <v>5.4526824618736378E-3</v>
+      </c>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="40">
         <v>5.36480034722222E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>2008</v>
       </c>
@@ -1760,14 +2052,20 @@
       <c r="P14" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="41"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="60"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="60"/>
+      <c r="V14" s="60"/>
+      <c r="W14" s="41"/>
     </row>
-    <row r="15" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>2013</v>
       </c>
       <c r="B15" s="42">
-        <f t="shared" ref="B15:P15" si="0">B6/B1</f>
+        <f t="shared" ref="B15:W15" si="0">B6/B1</f>
         <v>3.9259259259259256E-3</v>
       </c>
       <c r="C15" s="42">
@@ -1776,19 +2074,19 @@
       </c>
       <c r="D15" s="42">
         <f t="shared" si="0"/>
-        <v>4.2056327160493829E-3</v>
+        <v>4.1280864197530869E-3</v>
       </c>
       <c r="E15" s="42">
         <f t="shared" si="0"/>
-        <v>4.2928739265447194E-3</v>
+        <v>4.1189236111111114E-3</v>
       </c>
       <c r="F15" s="42">
         <f t="shared" si="0"/>
-        <v>4.3048611111111117E-3</v>
+        <v>4.1729166666666668E-3</v>
       </c>
       <c r="G15" s="42">
         <f t="shared" si="0"/>
-        <v>4.3462577160493831E-3</v>
+        <v>4.236882716049383E-3</v>
       </c>
       <c r="H15" s="42">
         <f t="shared" si="0"/>
@@ -1800,11 +2098,11 @@
       </c>
       <c r="J15" s="42">
         <f t="shared" si="0"/>
-        <v>4.4997427983539092E-3</v>
+        <v>4.3759732780042507E-3</v>
       </c>
       <c r="K15" s="42">
         <f t="shared" si="0"/>
-        <v>4.5431712962962969E-3</v>
+        <v>4.3973379629629631E-3</v>
       </c>
       <c r="L15" s="42">
         <f t="shared" si="0"/>
@@ -1816,22 +2114,31 @@
       </c>
       <c r="N15" s="42">
         <f t="shared" si="0"/>
-        <v>5.4510327635327637E-3</v>
+        <v>5.4042913105413117E-3</v>
       </c>
       <c r="O15" s="42">
         <f t="shared" si="0"/>
-        <v>5.5219080687830694E-3</v>
+        <v>5.4829695767195773E-3</v>
       </c>
       <c r="P15" s="42">
         <f t="shared" si="0"/>
-        <v>5.5883487654320996E-3</v>
-      </c>
-      <c r="Q15" s="51">
-        <f>Q6/Q1</f>
-        <v>5.7026909722222227E-3</v>
-      </c>
+        <v>5.4917438271604958E-3</v>
+      </c>
+      <c r="Q15" s="42">
+        <f t="shared" si="0"/>
+        <v>5.4956597222222238E-3</v>
+      </c>
+      <c r="R15" s="42">
+        <f t="shared" si="0"/>
+        <v>5.6033496732026157E-3</v>
+      </c>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="62"/>
     </row>
-    <row r="16" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
         <v>2</v>
       </c>
@@ -1881,75 +2188,105 @@
       <c r="P16" s="45">
         <v>4.5717592592592598E-3</v>
       </c>
-      <c r="Q16" s="46"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="61"/>
+      <c r="V16" s="61"/>
+      <c r="W16" s="46"/>
     </row>
-    <row r="17" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
+    <row r="17" spans="1:23" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="50">
+      <c r="B17" s="49">
         <f>[1]Bestzeiten!C$17</f>
-        <v>3.7384259259259259E-3</v>
-      </c>
-      <c r="C17" s="50">
+        <v>3.6689814814814814E-3</v>
+      </c>
+      <c r="C17" s="49">
         <f>[1]Bestzeiten!D$17</f>
-        <v>3.9467592592592592E-3</v>
-      </c>
-      <c r="D17" s="50">
+        <v>3.8657407407407408E-3</v>
+      </c>
+      <c r="D17" s="49">
         <f>[1]Bestzeiten!E$17</f>
-        <v>4.0625000000000001E-3</v>
-      </c>
-      <c r="E17" s="50">
+        <v>3.9930555555555552E-3</v>
+      </c>
+      <c r="E17" s="49">
         <f>[1]Bestzeiten!F$17</f>
-        <v>4.1550925925925922E-3</v>
-      </c>
-      <c r="F17" s="50">
+        <v>4.0740740740740737E-3</v>
+      </c>
+      <c r="F17" s="49">
         <f>[1]Bestzeiten!G$17</f>
-        <v>4.2245370370370371E-3</v>
-      </c>
-      <c r="G17" s="50">
+        <v>4.1435185185185186E-3</v>
+      </c>
+      <c r="G17" s="49">
         <f>[1]Bestzeiten!H$17</f>
-        <v>4.2824074074074075E-3</v>
-      </c>
-      <c r="H17" s="50">
+        <v>4.2013888888888891E-3</v>
+      </c>
+      <c r="H17" s="49">
         <f>[1]Bestzeiten!I$17</f>
+        <v>4.2476851851851851E-3</v>
+      </c>
+      <c r="I17" s="49">
+        <f>[1]Bestzeiten!J$17</f>
+        <v>4.2939814814814811E-3</v>
+      </c>
+      <c r="J17" s="49">
+        <f>[1]Bestzeiten!K$17</f>
         <v>4.340277777777778E-3</v>
       </c>
-      <c r="I17" s="50">
-        <f>[1]Bestzeiten!J$17</f>
-        <v>4.3831018518518516E-3</v>
-      </c>
-      <c r="J17" s="50">
-        <f>[1]Bestzeiten!K$17</f>
-        <v>4.4212962962962964E-3</v>
-      </c>
-      <c r="K17" s="50">
+      <c r="K17" s="49">
         <f>[1]Bestzeiten!L$17</f>
+        <v>4.3750000000000004E-3</v>
+      </c>
+      <c r="L17" s="49">
+        <f>[1]Bestzeiten!M$17</f>
+        <v>4.3981481481481484E-3</v>
+      </c>
+      <c r="M17" s="49">
+        <f>[1]Bestzeiten!N$17</f>
+        <v>4.43287037037037E-3</v>
+      </c>
+      <c r="N17" s="49">
+        <f>[1]Bestzeiten!O$17</f>
         <v>4.4560185185185189E-3</v>
       </c>
-      <c r="L17" s="50">
-        <f>[1]Bestzeiten!M$17</f>
-        <v>4.4907407407407405E-3</v>
-      </c>
-      <c r="M17" s="50">
-        <f>[1]Bestzeiten!N$17</f>
-        <v>4.5138888888888885E-3</v>
-      </c>
-      <c r="N17" s="50">
-        <f>[1]Bestzeiten!O$17</f>
+      <c r="O17" s="49">
+        <f>[1]Bestzeiten!P$17</f>
+        <v>4.4791666666666669E-3</v>
+      </c>
+      <c r="P17" s="49">
+        <f>[1]Bestzeiten!Q$17</f>
+        <v>4.5023148148148149E-3</v>
+      </c>
+      <c r="Q17" s="63">
+        <f>[1]Bestzeiten!R$17</f>
+        <v>4.5254629629629629E-3</v>
+      </c>
+      <c r="R17" s="49">
+        <f>[1]Bestzeiten!S$17</f>
         <v>4.5486111111111109E-3</v>
       </c>
-      <c r="O17" s="50">
-        <f>[1]Bestzeiten!P$17</f>
+      <c r="S17" s="49">
+        <f>[1]Bestzeiten!T$17</f>
         <v>4.5717592592592589E-3</v>
       </c>
-      <c r="P17" s="50">
-        <f>[1]Bestzeiten!Q$17</f>
-        <v>4.5949074074074078E-3</v>
-      </c>
-      <c r="Q17" s="47">
-        <f>[1]Bestzeiten!$R$17</f>
+      <c r="T17" s="49">
+        <f>[1]Bestzeiten!U$17</f>
+        <v>4.5833333333333334E-3</v>
+      </c>
+      <c r="U17" s="49">
+        <f>[1]Bestzeiten!V$17</f>
+        <v>4.6064814814814814E-3</v>
+      </c>
+      <c r="V17" s="49">
+        <f>[1]Bestzeiten!W$17</f>
         <v>4.6180555555555558E-3</v>
+      </c>
+      <c r="W17" s="64">
+        <f>[1]Bestzeiten!X$17</f>
+        <v>4.6412037037037038E-3</v>
       </c>
     </row>
   </sheetData>
